--- a/client/test1.xlsx
+++ b/client/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\py\SeatShuffler\client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7804829-08A8-4A9F-8DB6-12875A97B70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3BA241-E6B9-42D6-A4D1-98F4FD28FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="7550" windowWidth="26140" windowHeight="15190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="5690" windowWidth="26140" windowHeight="15190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
